--- a/csm/excel/templated insurance.xlsx
+++ b/csm/excel/templated insurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>บริษัทประกันภัย</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>ประกันภัยสุขได้ 2</t>
+  </si>
+  <si>
+    <t>ประกันภัยภาคบังคับ</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -952,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,10 +985,11 @@
     <col min="18" max="18" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="21" max="21" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1043,8 +1050,11 @@
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1104,6 +1114,9 @@
       </c>
       <c r="T2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/csm/excel/templated insurance.xlsx
+++ b/csm/excel/templated insurance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>บริษัทประกันภัย</t>
   </si>
@@ -73,47 +73,44 @@
     <t>แคมเปญ</t>
   </si>
   <si>
-    <t>HON001</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>200000</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ลำดับ</t>
+  </si>
+  <si>
+    <t>ประกันภัยสุขได้ 2</t>
+  </si>
+  <si>
+    <t>ประกันภัยภาคบังคับ</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>HO18CIVIC15</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>5000</t>
   </si>
   <si>
     <t>1000000</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>ประกันภัยสุขได้ 2</t>
-  </si>
-  <si>
-    <t>ประกันภัยภาคบังคับ</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +245,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -612,10 +615,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -958,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +974,7 @@
     <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
@@ -989,9 +993,9 @@
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
@@ -1051,72 +1055,78 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>15000</v>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/csm/excel/templated insurance.xlsx
+++ b/csm/excel/templated insurance.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Templated Insurance" sheetId="1" r:id="rId1"/>
+    <sheet name="หมายเหตุ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>บริษัทประกันภัย</t>
   </si>
@@ -104,13 +105,31 @@
   </si>
   <si>
     <t>1000000</t>
+  </si>
+  <si>
+    <t>Column แทบสีแดง</t>
+  </si>
+  <si>
+    <t>คือ column สำหรับตรวจสอบว่ามีข้อมูลซ้ำอยู่แล้วหรือไม่ ถ้าเกิดยังไม่มีข้อมูลก็จะทำการสร้างรายการประกันใหม่ขึ้นมา</t>
+  </si>
+  <si>
+    <t>แต่ถ้ามีข้อมูลอยู่แล้วในฐานข้อมูลโปรแกรมจะทำการ Update ข้อมูลตามที่ระบุไปในไฟล์ excel</t>
+  </si>
+  <si>
+    <t>*** ไม่แนะนำให้อัพเดตรายการที่มีสถานะยกเลิก C กลับมาเป็นสถานะใช้งาน A</t>
+  </si>
+  <si>
+    <t>***เหมาะแก่การอัพเดตสถานะจากใช้งานเป็นไม่ใช้งานเพื่อเปลี่ยนแปลงราคาประกันภัยในแต่ละปี ไม่แนะนำให้ลบข้อมูลทิ้งเพราะข้อมูลเก่าๆ ของลูกค้าที่เคยซื้อประกันภัยที่ลบไปแล้วจะไม่สามารถนำมาแสดงได้</t>
+  </si>
+  <si>
+    <t>เลยแนะนำให้ปลี่ยนสถานะจาก ใช้งาน A-&gt; C ไม่ใช้งานแทน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +271,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,11 +656,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -964,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,16 +1042,16 @@
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1057,7 +1102,7 @@
       <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1127,6 +1172,56 @@
       </c>
       <c r="V2" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/csm/excel/templated insurance.xlsx
+++ b/csm/excel/templated insurance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>บริษัทประกันภัย</t>
   </si>
@@ -23,9 +23,6 @@
     <t>ประเภทประกันภัย</t>
   </si>
   <si>
-    <t>ข้อมูลรถ</t>
-  </si>
-  <si>
     <t>โปรโมชั่น</t>
   </si>
   <si>
@@ -80,27 +77,18 @@
     <t>ลำดับ</t>
   </si>
   <si>
-    <t>ประกันภัยสุขได้ 2</t>
-  </si>
-  <si>
     <t>ประกันภัยภาคบังคับ</t>
   </si>
   <si>
     <t>สถานะ</t>
   </si>
   <si>
-    <t>HO18CIVIC15</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>25000</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
@@ -123,6 +111,27 @@
   </si>
   <si>
     <t>เลยแนะนำให้ปลี่ยนสถานะจาก ใช้งาน A-&gt; C ไม่ใช้งานแทน</t>
+  </si>
+  <si>
+    <t>ปีรถ</t>
+  </si>
+  <si>
+    <t>ข้อมูลรหัสแบรนด์</t>
+  </si>
+  <si>
+    <t>ข้อมูลรหัสรุ่น</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ประกันภัยสุขได้ 2234</t>
+  </si>
+  <si>
+    <t>50000</t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +486,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -665,6 +686,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -686,24 +709,24 @@
     <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="เซลล์ที่มีการเชื่อมโยง" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="เซลล์ที่มีการเชื่อมโยง" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1007,43 +1030,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -1052,128 +1078,142 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2061800</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="W2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
+    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1197,31 +1237,31 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
